--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value561.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value561.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.4157293553382195</v>
+        <v>1.053924202919006</v>
       </c>
       <c r="B1">
-        <v>0.6711682256381476</v>
+        <v>1.251293182373047</v>
       </c>
       <c r="C1">
-        <v>1.850209841910219</v>
+        <v>1.642839193344116</v>
       </c>
       <c r="D1">
-        <v>3.384693439369697</v>
+        <v>3.393104553222656</v>
       </c>
       <c r="E1">
-        <v>2.138915303719752</v>
+        <v>2.305240392684937</v>
       </c>
     </row>
   </sheetData>
